--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10160923502586</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N2">
-        <v>1.10160923502586</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q2">
-        <v>0.752802810892066</v>
+        <v>1.237345863603667</v>
       </c>
       <c r="R2">
-        <v>0.752802810892066</v>
+        <v>11.136112772433</v>
       </c>
       <c r="S2">
-        <v>0.02109256694321308</v>
+        <v>0.01905002723008594</v>
       </c>
       <c r="T2">
-        <v>0.02109256694321308</v>
+        <v>0.01905002723008594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.391481290354232</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N3">
-        <v>0.391481290354232</v>
+        <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q3">
-        <v>0.267525186263894</v>
+        <v>0.4220305884026667</v>
       </c>
       <c r="R3">
-        <v>0.267525186263894</v>
+        <v>3.798275295623999</v>
       </c>
       <c r="S3">
-        <v>0.007495711783514812</v>
+        <v>0.006497531884565445</v>
       </c>
       <c r="T3">
-        <v>0.007495711783514812</v>
+        <v>0.006497531884565444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.5922617627955</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>19.5922617627955</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10160923502586</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N4">
-        <v>1.10160923502586</v>
+        <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q4">
-        <v>21.58301649293956</v>
+        <v>0.3521714753473333</v>
       </c>
       <c r="R4">
-        <v>21.58301649293956</v>
+        <v>3.169543278126</v>
       </c>
       <c r="S4">
-        <v>0.6047283745850284</v>
+        <v>0.005421989431061091</v>
       </c>
       <c r="T4">
-        <v>0.6047283745850284</v>
+        <v>0.005421989431061092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.391481290354232</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N5">
-        <v>0.391481290354232</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q5">
-        <v>7.670003915857063</v>
+        <v>32.70278149206812</v>
       </c>
       <c r="R5">
-        <v>7.670003915857063</v>
+        <v>294.3250334286131</v>
       </c>
       <c r="S5">
-        <v>0.2149036490156211</v>
+        <v>0.5034880676846851</v>
       </c>
       <c r="T5">
-        <v>0.2149036490156211</v>
+        <v>0.5034880676846851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.6281007591876</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>3.6281007591876</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.10160923502586</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N6">
-        <v>1.10160923502586</v>
+        <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q6">
-        <v>3.996749301925394</v>
+        <v>11.15417646874045</v>
       </c>
       <c r="R6">
-        <v>3.996749301925394</v>
+        <v>100.387588218664</v>
       </c>
       <c r="S6">
-        <v>0.1119837771410612</v>
+        <v>0.1717283515538958</v>
       </c>
       <c r="T6">
-        <v>0.1119837771410612</v>
+        <v>0.1717283515538958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.6281007591876</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>3.6281007591876</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.391481290354232</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N7">
-        <v>0.391481290354232</v>
+        <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q7">
-        <v>1.420333566741931</v>
+        <v>9.307815336676224</v>
       </c>
       <c r="R7">
-        <v>1.420333566741931</v>
+        <v>83.77033803008602</v>
       </c>
       <c r="S7">
-        <v>0.03979592053156149</v>
+        <v>0.1433019989252487</v>
       </c>
       <c r="T7">
-        <v>0.03979592053156149</v>
+        <v>0.1433019989252487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.630999</v>
+      </c>
+      <c r="H8">
+        <v>10.892997</v>
+      </c>
+      <c r="I8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.656156333333334</v>
+      </c>
+      <c r="N8">
+        <v>4.968469000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="P8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="Q8">
+        <v>6.013501990177001</v>
+      </c>
+      <c r="R8">
+        <v>54.121517911593</v>
+      </c>
+      <c r="S8">
+        <v>0.09258314916688613</v>
+      </c>
+      <c r="T8">
+        <v>0.09258314916688615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.630999</v>
+      </c>
+      <c r="H9">
+        <v>10.892997</v>
+      </c>
+      <c r="I9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5648773333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.694632</v>
+      </c>
+      <c r="O9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="P9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="Q9">
+        <v>2.051069032456</v>
+      </c>
+      <c r="R9">
+        <v>18.459621292104</v>
+      </c>
+      <c r="S9">
+        <v>0.0315780106988649</v>
+      </c>
+      <c r="T9">
+        <v>0.0315780106988649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.630999</v>
+      </c>
+      <c r="H10">
+        <v>10.892997</v>
+      </c>
+      <c r="I10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4713726666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.414118</v>
+      </c>
+      <c r="O10">
+        <v>0.1750748617810164</v>
+      </c>
+      <c r="P10">
+        <v>0.1750748617810165</v>
+      </c>
+      <c r="Q10">
+        <v>1.711553681294</v>
+      </c>
+      <c r="R10">
+        <v>15.403983131646</v>
+      </c>
+      <c r="S10">
+        <v>0.02635087342470662</v>
+      </c>
+      <c r="T10">
+        <v>0.02635087342470663</v>
       </c>
     </row>
   </sheetData>
